--- a/admin/laporan/Report Data Siswa.xlsx
+++ b/admin/laporan/Report Data Siswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Lidya Bela Simarmata</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,6 +433,23 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20082010145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
